--- a/biology/Botanique/Arboretum/Arboretum.xlsx
+++ b/biology/Botanique/Arboretum/Arboretum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un arboretum ou arborétum (orthographe rectifiée de 1990) est un jardin botanique spécialisé, généralement conçu comme un espace paysager. Il présente de nombreuses espèces d'arbres ou d'essences ligneuses sous forme de collections le plus souvent thématiques.
 Il existe des arboretums d'agrément issus d'une grosse activité passée mais qui n'ont plus de missions scientifiques.
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plus ancien arboretum au monde date du XVe siècle. Il s'agit de l'arboretum de Trsteno situé dans la région de Dubrovnik en Croatie qui existait déjà en 1492.
 Le premier arboretum scientifique a été créé en France, au milieu du XVIIe siècle, par un officier de la marine française, Duhamel de Monceau, qui rassembla des collections importantes d'arbres d'Europe et d'Amérique du Nord.
@@ -548,13 +562,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les missions d'un arboretum obéissent aux règles générales d'un jardin botanique ce qui signifie que toutes les espèces  ligneuses soient soigneusement étiquetées pour renseigner les visiteurs.
-Conservatoire
-Certains arboretums ont un but de conservation et de sauvegarde d'essences menacées de disparition, le plus souvent d'origine étrangères au pays. L'ensemble des arboretums constitue un patrimoine naturel d'essences ligneuses forestières ou non.
-Recherche scientifique
-La partie de la botanique qui est spécialisée dans l'étude des arbres s'appelle la dendrologie.
 </t>
         </is>
       </c>
@@ -580,10 +592,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Conservatoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains arboretums ont un but de conservation et de sauvegarde d'essences menacées de disparition, le plus souvent d'origine étrangères au pays. L'ensemble des arboretums constitue un patrimoine naturel d'essences ligneuses forestières ou non.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arboretum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arboretum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recherche scientifique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie de la botanique qui est spécialisée dans l'étude des arbres s'appelle la dendrologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arboretum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arboretum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Comme dans les jardins botaniques, un vrai arboretum possède une graineterie qui stocke les graines des essences ligneuses de son pays et de sa région. Il stocke également les semences récoltées dans l'arboretum (même si, en raison de la présence d'un grand nombre d'espèces sur un espace restreint, les graines récupérées donnent souvent des hybrides).
 Généralement l'arboretum, lorsqu'il a une activité de multiplication, permet de préserver en multipliant les espèces ligneuses rares grâce à l'échange de semences entre les différents arboretums et jardins botaniques à travers le monde et ceci grâce à un index seminum.
@@ -596,31 +684,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Arboretum</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arboretum</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Arboretums importants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>En Europe :
 l'arboretum de Versailles-Chèvreloup à Rocquencourt dans les Yvelines en France
@@ -637,7 +727,7 @@
 l'arboretum du Vallon de l'Aubonne à Aubonne en Suisse.
 l'arboretum domanial de Pézanin, créé en 1903 en Bourgogne.
 l'arboretum d'Harcourt, au château d'Harcourt en Normandie
-L'arboretum de Matton et Clemency dans les Ardennes (08110)[1]
+L'arboretum de Matton et Clemency dans les Ardennes (08110)
 le jardin dendrologique de Průhonice en République tchèque
 l'arboretum Atatürk situé au nord d'Istanbul en Turquie.
 Aux États-Unis :
